--- a/Saved Simulations/Data_HHT_invivo.xlsx
+++ b/Saved Simulations/Data_HHT_invivo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://etsmtl365-my.sharepoint.com/personal/margaux_peixoto_1_ens_etsmtl_ca/Documents/projet recherche/07. Anybody_project_sauvegarde/FDK-healthy-shoulder/GH_contact_spheres/Output/Saved Simulations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anybody_projet\Figure Python\Saved Simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{BEC3E37B-97A0-45BE-A391-C5B716EF13CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5346D67-66E5-4E28-824D-5125EB6E65F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5ED087-9AC1-45F1-AD35-6470B5F44A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3FA9BE2-8105-4758-A4A7-13B0A4E277C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3FA9BE2-8105-4758-A4A7-13B0A4E277C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="4" r:id="rId1"/>
@@ -38,12 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="77">
   <si>
     <t>Variable Informations</t>
-  </si>
-  <si>
-    <t>Translation de la tête humérale [mm]</t>
   </si>
   <si>
     <t>MultiplyFactor</t>
@@ -310,6 +307,12 @@
   </si>
   <si>
     <t>Yamaguchi et al, 2000</t>
+  </si>
+  <si>
+    <t>Abduction angle [°]</t>
+  </si>
+  <si>
+    <t>Humeral head displacement [mm]</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1233,7 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -1238,40 +1241,40 @@
       <c r="G1" s="6"/>
       <c r="H1" s="3"/>
       <c r="I1" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:16" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="E2" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="56" t="s">
+      <c r="G2" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="45" t="s">
+      <c r="I2" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="46" t="s">
         <v>38</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>39</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1282,34 +1285,34 @@
     </row>
     <row r="3" spans="1:16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="48" t="s">
+      <c r="G3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>42</v>
-      </c>
       <c r="I3" s="78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1320,7 +1323,7 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="23">
         <v>1</v>
@@ -1336,10 +1339,10 @@
     </row>
     <row r="5" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="52"/>
@@ -1352,10 +1355,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="52"/>
@@ -1368,7 +1371,7 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="24">
         <v>1</v>
@@ -1384,10 +1387,10 @@
     </row>
     <row r="8" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>61</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>62</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="52"/>
@@ -1400,10 +1403,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="52"/>
@@ -1416,10 +1419,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="52"/>
@@ -1432,7 +1435,7 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="85">
         <v>100</v>
@@ -1478,7 +1481,7 @@
     </row>
     <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="52"/>
@@ -1491,7 +1494,7 @@
     </row>
     <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="52"/>
@@ -1504,7 +1507,7 @@
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="52"/>
@@ -1517,7 +1520,7 @@
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="52"/>
@@ -1530,7 +1533,7 @@
     </row>
     <row r="19" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A19" s="76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="52"/>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.3">
       <c r="A20" s="76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="52"/>
@@ -1556,7 +1559,7 @@
     </row>
     <row r="21" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="52"/>
@@ -1912,7 +1915,7 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="36"/>
@@ -1920,7 +1923,7 @@
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
       <c r="I1" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="32"/>
       <c r="K1" s="36"/>
@@ -1928,7 +1931,7 @@
       <c r="M1" s="32"/>
       <c r="N1" s="32"/>
       <c r="O1" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P1" s="32"/>
       <c r="Q1" s="6"/>
@@ -1950,43 +1953,43 @@
     </row>
     <row r="2" spans="1:32" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="58"/>
       <c r="G2" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="58"/>
       <c r="I2" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="58"/>
       <c r="M2" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" s="58"/>
       <c r="O2" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
       <c r="S2" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T2" s="32"/>
       <c r="U2" s="32"/>
@@ -2004,70 +2007,70 @@
     </row>
     <row r="3" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>39</v>
-      </c>
       <c r="E3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="55" t="s">
-        <v>39</v>
-      </c>
       <c r="G3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="55" t="s">
-        <v>39</v>
-      </c>
       <c r="I3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="55" t="s">
-        <v>39</v>
-      </c>
       <c r="K3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="55" t="s">
-        <v>39</v>
-      </c>
       <c r="M3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="55" t="s">
-        <v>39</v>
-      </c>
       <c r="O3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="55" t="s">
-        <v>39</v>
-      </c>
       <c r="Q3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="55" t="s">
-        <v>39</v>
-      </c>
       <c r="S3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="55" t="s">
-        <v>39</v>
-      </c>
       <c r="U3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="46" t="s">
         <v>38</v>
-      </c>
-      <c r="V3" s="46" t="s">
-        <v>39</v>
       </c>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
@@ -2082,70 +2085,70 @@
     </row>
     <row r="4" spans="1:32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="48" t="s">
+      <c r="S4" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="35" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" s="35" t="s">
-        <v>41</v>
       </c>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
@@ -2160,10 +2163,10 @@
     </row>
     <row r="5" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="40"/>
@@ -2198,10 +2201,10 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="40"/>
@@ -2236,7 +2239,7 @@
     </row>
     <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="24">
         <v>1</v>
@@ -2274,10 +2277,10 @@
     </row>
     <row r="8" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>61</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>62</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="40"/>
@@ -2312,10 +2315,10 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="40"/>
@@ -2350,10 +2353,10 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="40"/>
@@ -2388,7 +2391,7 @@
     </row>
     <row r="11" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="85">
         <v>100</v>
@@ -2682,7 +2685,7 @@
     </row>
     <row r="20" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="40"/>
@@ -2717,7 +2720,7 @@
     </row>
     <row r="21" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="40"/>
@@ -2752,7 +2755,7 @@
     </row>
     <row r="22" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="40"/>
@@ -2787,7 +2790,7 @@
     </row>
     <row r="23" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="40"/>
@@ -2822,7 +2825,7 @@
     </row>
     <row r="24" spans="1:32" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A24" s="76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="40"/>
@@ -2857,7 +2860,7 @@
     </row>
     <row r="25" spans="1:32" ht="75" x14ac:dyDescent="0.3">
       <c r="A25" s="76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="40"/>
@@ -2892,7 +2895,7 @@
     </row>
     <row r="26" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="40"/>
@@ -3896,7 +3899,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3914,7 +3917,7 @@
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -3925,28 +3928,28 @@
     </row>
     <row r="2" spans="1:16" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -3959,28 +3962,28 @@
     </row>
     <row r="3" spans="1:16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="37" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>6</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="63">
         <v>1</v>
@@ -4021,10 +4024,10 @@
     </row>
     <row r="5" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="18">
         <v>30</v>
@@ -4049,10 +4052,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="18">
         <v>45</v>
@@ -4077,7 +4080,7 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="64">
         <f>75*9.81/100</f>
@@ -4106,10 +4109,10 @@
     </row>
     <row r="8" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="30"/>
@@ -4122,7 +4125,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="82">
         <v>15</v>
@@ -4138,7 +4141,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="83">
         <v>75</v>
@@ -4154,7 +4157,7 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="84">
         <v>13</v>
@@ -4220,7 +4223,7 @@
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -4246,7 +4249,7 @@
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -4259,7 +4262,7 @@
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -4272,7 +4275,7 @@
     </row>
     <row r="21" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A21" s="76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -4285,7 +4288,7 @@
     </row>
     <row r="22" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -4598,8 +4601,8 @@
   </sheetPr>
   <dimension ref="A1:AN59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,7 +4637,7 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4642,7 +4645,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -4650,7 +4653,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="3"/>
       <c r="O1" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
@@ -4658,19 +4661,19 @@
       <c r="S1" s="6"/>
       <c r="T1" s="3"/>
       <c r="U1" s="92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD1" s="6"/>
       <c r="AE1" s="6"/>
@@ -4678,265 +4681,265 @@
       <c r="AG1" s="6"/>
       <c r="AH1" s="6"/>
       <c r="AI1" s="92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL1" s="6"/>
       <c r="AM1" s="92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN1" s="3"/>
     </row>
     <row r="2" spans="1:40" s="8" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="E2" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="59" t="s">
+      <c r="G2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="32" t="s">
+      <c r="I2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="K2" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="59" t="s">
+      <c r="M2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="32" t="s">
+      <c r="O2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="31" t="s">
+      <c r="Q2" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="59" t="s">
+      <c r="S2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="32" t="s">
+      <c r="U2" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="59" t="s">
+      <c r="W2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="32" t="s">
+      <c r="Y2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="32" t="s">
+      <c r="AA2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AC2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC2" s="31" t="s">
+      <c r="AE2" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="59" t="s">
+      <c r="AG2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AI2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI2" s="31" t="s">
+      <c r="AK2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK2" s="32" t="s">
+      <c r="AM2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="33" t="s">
         <v>3</v>
-      </c>
-      <c r="AL2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN2" s="33" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="E3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="G3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="K3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="O3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="Q3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="AE3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="57" t="s">
+      <c r="AG3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="57" t="s">
+      <c r="AI3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="57" t="s">
+      <c r="AK3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="57" t="s">
+      <c r="AM3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN3" s="37" t="s">
         <v>7</v>
-      </c>
-      <c r="AA3" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE3" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG3" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN3" s="37" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="63">
         <v>1</v>
@@ -5058,10 +5061,10 @@
     </row>
     <row r="5" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="18">
         <v>2.1825813221405999</v>
@@ -5180,10 +5183,10 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C6" s="18">
         <v>8.6463798530954801</v>
@@ -5302,7 +5305,7 @@
     </row>
     <row r="7" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="87">
         <v>1</v>
@@ -5399,10 +5402,10 @@
     </row>
     <row r="8" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="18">
         <v>23.840503672612801</v>
@@ -5501,7 +5504,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="83">
         <v>0</v>
@@ -5603,7 +5606,7 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="83">
         <v>90</v>
@@ -5699,7 +5702,7 @@
     </row>
     <row r="11" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="84">
         <v>100</v>
@@ -8085,7 +8088,7 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="36"/>
@@ -8119,274 +8122,274 @@
     </row>
     <row r="2" spans="1:32" s="8" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="58"/>
       <c r="G2" s="59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="58"/>
       <c r="I2" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="58"/>
       <c r="K2" s="59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="58"/>
       <c r="M2" s="59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="58"/>
       <c r="O2" s="59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P2" s="58"/>
       <c r="Q2" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" s="58"/>
       <c r="S2" s="59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T2" s="58"/>
       <c r="U2" s="59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V2" s="58"/>
       <c r="W2" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X2" s="58"/>
       <c r="Y2" s="59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="58"/>
       <c r="AA2" s="59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB2" s="58"/>
       <c r="AC2" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD2" s="58"/>
       <c r="AE2" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF2" s="33"/>
     </row>
     <row r="3" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O3" s="59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R3" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S3" s="59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U3" s="59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V3" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W3" s="59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y3" s="59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA3" s="59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE3" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="63">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P4" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R4" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S4" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T4" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U4" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W4" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z4" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA4" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB4" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC4" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD4" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE4" s="20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF4" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="38">
         <v>1.7</v>
@@ -8481,10 +8484,10 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="38">
         <v>5.8</v>
@@ -8579,7 +8582,7 @@
     </row>
     <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="64">
         <v>1</v>
@@ -8677,10 +8680,10 @@
     </row>
     <row r="8" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="38">
         <v>12.4</v>
@@ -8775,7 +8778,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="82">
         <v>0</v>
@@ -8873,7 +8876,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="83">
         <v>120</v>
@@ -8971,7 +8974,7 @@
     </row>
     <row r="11" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="84">
         <v>100</v>
